--- a/data/output/set50/high_noisy_25/results/ssim.xlsx
+++ b/data/output/set50/high_noisy_25/results/ssim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\high_noisy_25\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\set50\high_noisy_25\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4BCB15-E303-47D7-B344-7E27E4486C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B5B58E-5BD6-4801-9669-F58BCC5272F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ssim_nlm</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>ssim_bm3d</t>
+  </si>
+  <si>
+    <t>ssim_dual</t>
   </si>
 </sst>
 </file>
@@ -414,576 +417,731 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0.29926681999999999</v>
+      </c>
+      <c r="B2">
         <v>0.82168949999999996</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.76999556999999996</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.89143364000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.46643074000000001</v>
+      </c>
+      <c r="B3">
         <v>0.82185551999999995</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.80293060999999999</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.88762339000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>0.37184529999999999</v>
+      </c>
+      <c r="B4">
         <v>0.70076086999999998</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.67844908000000004</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.78261382999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>0.33937541999999998</v>
+      </c>
+      <c r="B5">
         <v>0.72309718000000001</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.67303595999999999</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.80810504000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>0.35081072000000002</v>
+      </c>
+      <c r="B6">
         <v>0.68059353</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.64872357000000003</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.76798204999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>0.37825068000000001</v>
+      </c>
+      <c r="B7">
         <v>0.71499323000000004</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.70045341999999999</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.81789659000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>0.43396659999999998</v>
+      </c>
+      <c r="B8">
         <v>0.72518395999999996</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.68891789999999997</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.80957303999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>0.59199802000000001</v>
+      </c>
+      <c r="B9">
         <v>0.75629884999999997</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.76915007000000002</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.79979191000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>0.35971520000000001</v>
+      </c>
+      <c r="B10">
         <v>0.74710376999999994</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>0.72791764000000003</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.81908806999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>0.45016200000000001</v>
+      </c>
+      <c r="B11">
         <v>0.76533505000000002</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.72025687000000005</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.83037169</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>0.32270578999999999</v>
+      </c>
+      <c r="B12">
         <v>0.82788225000000004</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.76826868999999998</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.88321727000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>0.57925831999999999</v>
+      </c>
+      <c r="B13">
         <v>0.81054729999999997</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.81625241999999998</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.85391490999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>0.44274922999999999</v>
+      </c>
+      <c r="B14">
         <v>0.66538169999999996</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.66802603999999999</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.73704356999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>0.40133455000000001</v>
+      </c>
+      <c r="B15">
         <v>0.77578320000000001</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.73093808000000005</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.85882077000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>0.63141828</v>
+      </c>
+      <c r="B16">
         <v>0.72301353999999995</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.71856348000000003</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.72473553999999996</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>0.50092400999999998</v>
+      </c>
+      <c r="B17">
         <v>0.72020373999999998</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.68309542000000001</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.76311043000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>0.59182071999999997</v>
+      </c>
+      <c r="B18">
         <v>0.6577191</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.66828971999999998</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.59086662999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>0.60037549999999995</v>
+      </c>
+      <c r="B19">
         <v>0.68739212999999999</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.72314031999999995</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.76395228999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>0.6011976</v>
+      </c>
+      <c r="B20">
         <v>0.72836495000000001</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>0.72260568999999997</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.74147534000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>0.48702031000000001</v>
+      </c>
+      <c r="B21">
         <v>0.71043679000000004</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>0.71442355999999996</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.79367407999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>0.47988093999999998</v>
+      </c>
+      <c r="B22">
         <v>0.66813518000000005</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>0.65937024</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.72569194999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>0.3342195</v>
+      </c>
+      <c r="B23">
         <v>0.71845777</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>0.64798175000000002</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.77861084999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>0.36220103999999997</v>
+      </c>
+      <c r="B24">
         <v>0.71421257999999999</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>0.63418163999999999</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.72515536000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>0.23935210000000001</v>
+      </c>
+      <c r="B25">
         <v>0.80803948000000003</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>0.73698522</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.87309113000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>0.30136347000000002</v>
+      </c>
+      <c r="B26">
         <v>0.73270409000000003</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>0.65878806000000001</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.80418842000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>0.22847839</v>
+      </c>
+      <c r="B27">
         <v>0.76064346999999999</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>0.67274266000000005</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.84658900999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>0.29870090999999999</v>
+      </c>
+      <c r="B28">
         <v>0.70354897999999999</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>0.65233806000000005</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.78301922000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>0.25911645999999999</v>
+      </c>
+      <c r="B29">
         <v>0.82585984999999995</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>0.74718686000000001</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.87204327999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>0.29678926999999999</v>
+      </c>
+      <c r="B30">
         <v>0.71710302000000004</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>0.65244517000000002</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.79449603999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>0.59499533999999998</v>
+      </c>
+      <c r="B31">
         <v>0.63796684000000004</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>0.67792604999999995</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.64036990999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>0.43091739000000001</v>
+      </c>
+      <c r="B32">
         <v>0.68289622999999999</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.67803683999999997</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.74796490000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>0.63979021000000003</v>
+      </c>
+      <c r="B33">
         <v>0.71382100000000004</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>0.70754947999999995</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.65870603999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>0.51387335000000001</v>
+      </c>
+      <c r="B34">
         <v>0.61312957999999995</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>0.62941955000000005</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.66553812000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>0.41469735000000002</v>
+      </c>
+      <c r="B35">
         <v>0.66310396999999999</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>0.64941077999999997</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.73802203</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>0.51632469999999997</v>
+      </c>
+      <c r="B36">
         <v>0.68726735000000005</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>0.71802661000000001</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.76359571000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>0.38867591000000001</v>
+      </c>
+      <c r="B37">
         <v>0.77468281000000005</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>0.73824179000000001</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.81998948000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>0.52491215000000002</v>
+      </c>
+      <c r="B38">
         <v>0.69553354999999994</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>0.73569982</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.80408524999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>0.39391175</v>
+      </c>
+      <c r="B39">
         <v>0.61155649999999995</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0.59080315999999999</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.64089481000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>0.35023684999999999</v>
+      </c>
+      <c r="B40">
         <v>0.73151151000000003</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.67960657999999996</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.81477124999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>0.26948815999999998</v>
+      </c>
+      <c r="B41">
         <v>0.79726416</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>0.70673900000000001</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.84226239000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>0.26673477000000001</v>
+      </c>
+      <c r="B42">
         <v>0.71360862000000003</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0.65023370999999996</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.79239738000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>0.42425993000000001</v>
+      </c>
+      <c r="B43">
         <v>0.72302005000000003</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>0.71745261000000005</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.81987352000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>0.40173797</v>
+      </c>
+      <c r="B44">
         <v>0.73714049000000004</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>0.71584614000000002</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.80004277999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>0.4252281</v>
+      </c>
+      <c r="B45">
         <v>0.78708438999999997</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>0.76332328999999999</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.86764874999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>0.82339410999999996</v>
+      </c>
+      <c r="B46">
         <v>0.82461119000000005</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>0.81125541999999995</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.67113128</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>0.41392320999999999</v>
+      </c>
+      <c r="B47">
         <v>0.75155981999999999</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>0.72313923999999996</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.81081882000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>0.55599288999999996</v>
+      </c>
+      <c r="B48">
         <v>0.69550257000000004</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>0.71070599000000001</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.74348837999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>0.57416900999999998</v>
+      </c>
+      <c r="B49">
         <v>0.71541938999999999</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>0.71973100000000001</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.74740041999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>0.37315745</v>
+      </c>
+      <c r="B50">
         <v>0.78274602000000004</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>0.74214033999999995</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.86041869000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>0.52681442000000001</v>
+      </c>
+      <c r="B51">
         <v>0.85874742000000004</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>0.83595397000000005</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.92238712</v>
       </c>
     </row>
